--- a/Document/DB/db명세.xlsx
+++ b/Document/DB/db명세.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="95" uniqueCount="43">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="118" uniqueCount="54">
   <si>
     <t>이름</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -113,10 +113,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>PLAY 값은 0또는 1만 가능</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>테이블명</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -185,6 +181,54 @@
   </si>
   <si>
     <t>Users(ID)를 참조함</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ROOM_MASTER</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>LEVEL</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>VARCHAR</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>X</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>단어의난이도 선택</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>EASY/HARD</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>O/X</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Word</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>제시어를 저장하는 테이블</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>WORD</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>단어의 난이도</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>제시어</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -568,10 +612,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F20"/>
+  <dimension ref="A1:F25"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D5" sqref="D5"/>
+    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="F25" sqref="F25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -585,13 +629,13 @@
   <sheetData>
     <row r="1" spans="1:6" ht="36" customHeight="1">
       <c r="A1" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="B1" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="B1" s="2" t="s">
-        <v>26</v>
-      </c>
       <c r="C1" s="7" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D1" s="7"/>
       <c r="E1" s="7"/>
@@ -611,7 +655,7 @@
         <v>2</v>
       </c>
       <c r="E2" s="3" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="F2" s="3" t="s">
         <v>23</v>
@@ -631,7 +675,7 @@
         <v>17</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="F3" s="1"/>
     </row>
@@ -649,7 +693,7 @@
         <v>11</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="F4" s="1"/>
     </row>
@@ -667,19 +711,19 @@
         <v>10</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="F5" s="1"/>
     </row>
     <row r="6" spans="1:6" ht="36" customHeight="1">
       <c r="A6" s="2" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B6" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="C6" s="7" t="s">
         <v>35</v>
-      </c>
-      <c r="C6" s="7" t="s">
-        <v>36</v>
       </c>
       <c r="D6" s="7"/>
       <c r="E6" s="7"/>
@@ -715,10 +759,10 @@
         <v>17</v>
       </c>
       <c r="E8" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="F8" s="1" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="9" spans="1:6">
@@ -726,7 +770,7 @@
         <v>12</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C9" s="1" t="s">
         <v>8</v>
@@ -735,7 +779,7 @@
         <v>14</v>
       </c>
       <c r="E9" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="F9" s="1"/>
     </row>
@@ -753,19 +797,19 @@
         <v>15</v>
       </c>
       <c r="E10" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="F10" s="1"/>
     </row>
     <row r="11" spans="1:6" ht="42" customHeight="1">
       <c r="A11" s="2" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C11" s="7" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="D11" s="7"/>
       <c r="E11" s="7"/>
@@ -792,7 +836,7 @@
         <v>16</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C13" s="1" t="s">
         <v>8</v>
@@ -801,10 +845,10 @@
         <v>18</v>
       </c>
       <c r="E13" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="F13" s="1" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="14" spans="1:6">
@@ -821,21 +865,21 @@
         <v>17</v>
       </c>
       <c r="E14" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="F14" s="1" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="15" spans="1:6" ht="39.75" customHeight="1">
       <c r="A15" s="2" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B15" s="6" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C15" s="7" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="D15" s="7"/>
       <c r="E15" s="7"/>
@@ -862,7 +906,7 @@
         <v>16</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C17" s="1" t="s">
         <v>6</v>
@@ -871,15 +915,15 @@
         <v>18</v>
       </c>
       <c r="E17" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="F17" s="1" t="s">
         <v>30</v>
-      </c>
-      <c r="F17" s="1" t="s">
-        <v>31</v>
       </c>
     </row>
     <row r="18" spans="1:6">
       <c r="A18" s="1" t="s">
-        <v>4</v>
+        <v>42</v>
       </c>
       <c r="B18" s="1" t="s">
         <v>5</v>
@@ -888,10 +932,10 @@
         <v>8</v>
       </c>
       <c r="D18" s="1" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="E18" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="F18" s="1"/>
     </row>
@@ -900,7 +944,7 @@
         <v>19</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>32</v>
+        <v>5</v>
       </c>
       <c r="C19" s="1" t="s">
         <v>8</v>
@@ -909,10 +953,10 @@
         <v>21</v>
       </c>
       <c r="E19" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="F19" s="1" t="s">
-        <v>24</v>
+        <v>48</v>
       </c>
     </row>
     <row r="20" spans="1:6">
@@ -920,7 +964,7 @@
         <v>20</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C20" s="1" t="s">
         <v>8</v>
@@ -929,16 +973,101 @@
         <v>22</v>
       </c>
       <c r="E20" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="F20" s="1"/>
     </row>
+    <row r="21" spans="1:6">
+      <c r="A21" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="B21" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="C21" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="D21" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="E21" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="F21" s="1" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" ht="39.75" customHeight="1">
+      <c r="A22" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="B22" s="6" t="s">
+        <v>49</v>
+      </c>
+      <c r="C22" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="D22" s="7"/>
+      <c r="E22" s="7"/>
+      <c r="F22" s="7"/>
+    </row>
+    <row r="23" spans="1:6" ht="30" customHeight="1">
+      <c r="A23" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="B23" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="C23" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="D23" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="E23" s="4"/>
+      <c r="F23" s="4"/>
+    </row>
+    <row r="24" spans="1:6">
+      <c r="A24" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="B24" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C24" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="D24" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="E24" s="1" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6">
+      <c r="A25" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="B25" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C25" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="D25" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="E25" s="1" t="s">
+        <v>29</v>
+      </c>
+    </row>
   </sheetData>
-  <mergeCells count="4">
+  <mergeCells count="5">
     <mergeCell ref="C1:F1"/>
     <mergeCell ref="C6:F6"/>
     <mergeCell ref="C11:F11"/>
     <mergeCell ref="C15:F15"/>
+    <mergeCell ref="C22:F22"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
